--- a/natmiOut/OldD2/LR-pairs_lrc2p/Serpinc1-Sdc2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Serpinc1-Sdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.35849724814574</v>
+        <v>4.3633995</v>
       </c>
       <c r="H2">
-        <v>4.35849724814574</v>
+        <v>8.726799</v>
       </c>
       <c r="I2">
-        <v>0.2279789298318919</v>
+        <v>0.2236180428734886</v>
       </c>
       <c r="J2">
-        <v>0.2279789298318919</v>
+        <v>0.1722580872859944</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.997386032128483</v>
+        <v>0.9991829999999999</v>
       </c>
       <c r="N2">
-        <v>0.997386032128483</v>
+        <v>1.998366</v>
       </c>
       <c r="O2">
-        <v>0.01575351394248427</v>
+        <v>0.01488714493203248</v>
       </c>
       <c r="P2">
-        <v>0.01575351394248427</v>
+        <v>0.01137801272088475</v>
       </c>
       <c r="Q2">
-        <v>4.347104276370992</v>
+        <v>4.359834602608499</v>
       </c>
       <c r="R2">
-        <v>4.347104276370992</v>
+        <v>17.439338410434</v>
       </c>
       <c r="S2">
-        <v>0.003591469249699352</v>
+        <v>0.003329034213675077</v>
       </c>
       <c r="T2">
-        <v>0.003591469249699352</v>
+        <v>0.001959954708415321</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.35849724814574</v>
+        <v>4.3633995</v>
       </c>
       <c r="H3">
-        <v>4.35849724814574</v>
+        <v>8.726799</v>
       </c>
       <c r="I3">
-        <v>0.2279789298318919</v>
+        <v>0.2236180428734886</v>
       </c>
       <c r="J3">
-        <v>0.2279789298318919</v>
+        <v>0.1722580872859944</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>36.9720630093316</v>
+        <v>39.565288</v>
       </c>
       <c r="N3">
-        <v>36.9720630093316</v>
+        <v>118.695864</v>
       </c>
       <c r="O3">
-        <v>0.5839663794538508</v>
+        <v>0.5894957947979553</v>
       </c>
       <c r="P3">
-        <v>0.5839663794538508</v>
+        <v>0.6758136650185235</v>
       </c>
       <c r="Q3">
-        <v>161.1426348844427</v>
+        <v>172.639157876556</v>
       </c>
       <c r="R3">
-        <v>161.1426348844427</v>
+        <v>1035.834947259336</v>
       </c>
       <c r="S3">
-        <v>0.1331320302456934</v>
+        <v>0.1318218959148704</v>
       </c>
       <c r="T3">
-        <v>0.1331320302456934</v>
+        <v>0.1164143692978286</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.35849724814574</v>
+        <v>4.3633995</v>
       </c>
       <c r="H4">
-        <v>4.35849724814574</v>
+        <v>8.726799</v>
       </c>
       <c r="I4">
-        <v>0.2279789298318919</v>
+        <v>0.2236180428734886</v>
       </c>
       <c r="J4">
-        <v>0.2279789298318919</v>
+        <v>0.1722580872859944</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.4251159554415</v>
+        <v>0.06171066666666666</v>
       </c>
       <c r="N4">
-        <v>1.4251159554415</v>
+        <v>0.185132</v>
       </c>
       <c r="O4">
-        <v>0.02250942298218628</v>
+        <v>0.0009194468265763251</v>
       </c>
       <c r="P4">
-        <v>0.02250942298218628</v>
+        <v>0.001054078307498645</v>
       </c>
       <c r="Q4">
-        <v>6.211363970080365</v>
+        <v>0.269268292078</v>
       </c>
       <c r="R4">
-        <v>6.211363970080365</v>
+        <v>1.615609752468</v>
       </c>
       <c r="S4">
-        <v>0.005131674162612221</v>
+        <v>0.0002056048998852377</v>
       </c>
       <c r="T4">
-        <v>0.005131674162612221</v>
+        <v>0.0001815735130993748</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.35849724814574</v>
+        <v>4.3633995</v>
       </c>
       <c r="H5">
-        <v>4.35849724814574</v>
+        <v>8.726799</v>
       </c>
       <c r="I5">
-        <v>0.2279789298318919</v>
+        <v>0.2236180428734886</v>
       </c>
       <c r="J5">
-        <v>0.2279789298318919</v>
+        <v>0.1722580872859944</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.9174069079012</v>
+        <v>1.772676333333334</v>
       </c>
       <c r="N5">
-        <v>23.9174069079012</v>
+        <v>5.318029000000001</v>
       </c>
       <c r="O5">
-        <v>0.3777706836214788</v>
+        <v>0.0264116678245299</v>
       </c>
       <c r="P5">
-        <v>0.3777706836214788</v>
+        <v>0.03027903878070085</v>
       </c>
       <c r="Q5">
-        <v>104.2439521908693</v>
+        <v>7.734895026528502</v>
       </c>
       <c r="R5">
-        <v>104.2439521908693</v>
+        <v>46.409370159171</v>
       </c>
       <c r="S5">
-        <v>0.08612375617388693</v>
+        <v>0.005906125467946065</v>
       </c>
       <c r="T5">
-        <v>0.08612375617388693</v>
+        <v>0.005215809305221978</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.43353942001385</v>
+        <v>4.3633995</v>
       </c>
       <c r="H6">
-        <v>2.43353942001385</v>
+        <v>8.726799</v>
       </c>
       <c r="I6">
-        <v>0.1272905960682917</v>
+        <v>0.2236180428734886</v>
       </c>
       <c r="J6">
-        <v>0.1272905960682917</v>
+        <v>0.1722580872859944</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.997386032128483</v>
+        <v>24.7183095</v>
       </c>
       <c r="N6">
-        <v>0.997386032128483</v>
+        <v>49.436619</v>
       </c>
       <c r="O6">
-        <v>0.01575351394248427</v>
+        <v>0.3682859456189059</v>
       </c>
       <c r="P6">
-        <v>0.01575351394248427</v>
+        <v>0.2814752051723923</v>
       </c>
       <c r="Q6">
-        <v>2.427178226155864</v>
+        <v>107.8558593131452</v>
       </c>
       <c r="R6">
-        <v>2.427178226155864</v>
+        <v>431.423437252581</v>
       </c>
       <c r="S6">
-        <v>0.002005274179908967</v>
+        <v>0.08235538237711178</v>
       </c>
       <c r="T6">
-        <v>0.002005274179908967</v>
+        <v>0.04848638046142915</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.43353942001385</v>
+        <v>2.700122</v>
       </c>
       <c r="H7">
-        <v>2.43353942001385</v>
+        <v>8.100365999999999</v>
       </c>
       <c r="I7">
-        <v>0.1272905960682917</v>
+        <v>0.1383774273154795</v>
       </c>
       <c r="J7">
-        <v>0.1272905960682917</v>
+        <v>0.159892940524527</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>36.9720630093316</v>
+        <v>0.9991829999999999</v>
       </c>
       <c r="N7">
-        <v>36.9720630093316</v>
+        <v>1.998366</v>
       </c>
       <c r="O7">
-        <v>0.5839663794538508</v>
+        <v>0.01488714493203248</v>
       </c>
       <c r="P7">
-        <v>0.5839663794538508</v>
+        <v>0.01137801272088475</v>
       </c>
       <c r="Q7">
-        <v>89.97297277244434</v>
+        <v>2.697916000326</v>
       </c>
       <c r="R7">
-        <v>89.97297277244434</v>
+        <v>16.187496001956</v>
       </c>
       <c r="S7">
-        <v>0.07433342852452286</v>
+        <v>0.002060044815767333</v>
       </c>
       <c r="T7">
-        <v>0.07433342852452286</v>
+        <v>0.001819263911267737</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.43353942001385</v>
+        <v>2.700122</v>
       </c>
       <c r="H8">
-        <v>2.43353942001385</v>
+        <v>8.100365999999999</v>
       </c>
       <c r="I8">
-        <v>0.1272905960682917</v>
+        <v>0.1383774273154795</v>
       </c>
       <c r="J8">
-        <v>0.1272905960682917</v>
+        <v>0.159892940524527</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.4251159554415</v>
+        <v>39.565288</v>
       </c>
       <c r="N8">
-        <v>1.4251159554415</v>
+        <v>118.695864</v>
       </c>
       <c r="O8">
-        <v>0.02250942298218628</v>
+        <v>0.5894957947979553</v>
       </c>
       <c r="P8">
-        <v>0.02250942298218628</v>
+        <v>0.6758136650185235</v>
       </c>
       <c r="Q8">
-        <v>3.468075855657592</v>
+        <v>106.831104565136</v>
       </c>
       <c r="R8">
-        <v>3.468075855657592</v>
+        <v>961.4799410862239</v>
       </c>
       <c r="S8">
-        <v>0.002865237868555796</v>
+        <v>0.0815729114974349</v>
       </c>
       <c r="T8">
-        <v>0.002865237868555796</v>
+        <v>0.1080578341464694</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,60 +968,60 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.43353942001385</v>
+        <v>2.700122</v>
       </c>
       <c r="H9">
-        <v>2.43353942001385</v>
+        <v>8.100365999999999</v>
       </c>
       <c r="I9">
-        <v>0.1272905960682917</v>
+        <v>0.1383774273154795</v>
       </c>
       <c r="J9">
-        <v>0.1272905960682917</v>
+        <v>0.159892940524527</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>23.9174069079012</v>
+        <v>0.06171066666666666</v>
       </c>
       <c r="N9">
-        <v>23.9174069079012</v>
+        <v>0.185132</v>
       </c>
       <c r="O9">
-        <v>0.3777706836214788</v>
+        <v>0.0009194468265763251</v>
       </c>
       <c r="P9">
-        <v>0.3777706836214788</v>
+        <v>0.001054078307498645</v>
       </c>
       <c r="Q9">
-        <v>58.20395253488913</v>
+        <v>0.1666263287013333</v>
       </c>
       <c r="R9">
-        <v>58.20395253488913</v>
+        <v>1.499636958312</v>
       </c>
       <c r="S9">
-        <v>0.04808665549530407</v>
+        <v>0.0001272306864150137</v>
       </c>
       <c r="T9">
-        <v>0.04808665549530407</v>
+        <v>0.0001685396801290748</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.71989680487256</v>
+        <v>2.700122</v>
       </c>
       <c r="H10">
-        <v>2.71989680487256</v>
+        <v>8.100365999999999</v>
       </c>
       <c r="I10">
-        <v>0.1422690270349102</v>
+        <v>0.1383774273154795</v>
       </c>
       <c r="J10">
-        <v>0.1422690270349102</v>
+        <v>0.159892940524527</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.997386032128483</v>
+        <v>1.772676333333334</v>
       </c>
       <c r="N10">
-        <v>0.997386032128483</v>
+        <v>5.318029000000001</v>
       </c>
       <c r="O10">
-        <v>0.01575351394248427</v>
+        <v>0.0264116678245299</v>
       </c>
       <c r="P10">
-        <v>0.01575351394248427</v>
+        <v>0.03027903878070085</v>
       </c>
       <c r="Q10">
-        <v>2.712787082010781</v>
+        <v>4.786442366512667</v>
       </c>
       <c r="R10">
-        <v>2.712787082010781</v>
+        <v>43.07798129861401</v>
       </c>
       <c r="S10">
-        <v>0.00224123710097813</v>
+        <v>0.003654778644669475</v>
       </c>
       <c r="T10">
-        <v>0.00224123710097813</v>
+        <v>0.004841404546902447</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,55 +1092,55 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.71989680487256</v>
+        <v>2.700122</v>
       </c>
       <c r="H11">
-        <v>2.71989680487256</v>
+        <v>8.100365999999999</v>
       </c>
       <c r="I11">
-        <v>0.1422690270349102</v>
+        <v>0.1383774273154795</v>
       </c>
       <c r="J11">
-        <v>0.1422690270349102</v>
+        <v>0.159892940524527</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>36.9720630093316</v>
+        <v>24.7183095</v>
       </c>
       <c r="N11">
-        <v>36.9720630093316</v>
+        <v>49.436619</v>
       </c>
       <c r="O11">
-        <v>0.5839663794538508</v>
+        <v>0.3682859456189059</v>
       </c>
       <c r="P11">
-        <v>0.5839663794538508</v>
+        <v>0.2814752051723923</v>
       </c>
       <c r="Q11">
-        <v>100.560196048628</v>
+        <v>66.742451283759</v>
       </c>
       <c r="R11">
-        <v>100.560196048628</v>
+        <v>400.4547077025539</v>
       </c>
       <c r="S11">
-        <v>0.08308032862599854</v>
+        <v>0.0509624616711928</v>
       </c>
       <c r="T11">
-        <v>0.08308032862599854</v>
+        <v>0.04500589823975835</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,55 +1154,55 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.71989680487256</v>
+        <v>2.791195666666667</v>
       </c>
       <c r="H12">
-        <v>2.71989680487256</v>
+        <v>8.373587000000001</v>
       </c>
       <c r="I12">
-        <v>0.1422690270349102</v>
+        <v>0.1430448237107242</v>
       </c>
       <c r="J12">
-        <v>0.1422690270349102</v>
+        <v>0.1652860436390099</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.4251159554415</v>
+        <v>0.9991829999999999</v>
       </c>
       <c r="N12">
-        <v>1.4251159554415</v>
+        <v>1.998366</v>
       </c>
       <c r="O12">
-        <v>0.02250942298218628</v>
+        <v>0.01488714493203248</v>
       </c>
       <c r="P12">
-        <v>0.02250942298218628</v>
+        <v>0.01137801272088475</v>
       </c>
       <c r="Q12">
-        <v>3.876168333778242</v>
+        <v>2.788915259807</v>
       </c>
       <c r="R12">
-        <v>3.876168333778242</v>
+        <v>16.733491558842</v>
       </c>
       <c r="S12">
-        <v>0.00320239370679289</v>
+        <v>0.002129529022358587</v>
       </c>
       <c r="T12">
-        <v>0.00320239370679289</v>
+        <v>0.001880626707109368</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.71989680487256</v>
+        <v>2.791195666666667</v>
       </c>
       <c r="H13">
-        <v>2.71989680487256</v>
+        <v>8.373587000000001</v>
       </c>
       <c r="I13">
-        <v>0.1422690270349102</v>
+        <v>0.1430448237107242</v>
       </c>
       <c r="J13">
-        <v>0.1422690270349102</v>
+        <v>0.1652860436390099</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>23.9174069079012</v>
+        <v>39.565288</v>
       </c>
       <c r="N13">
-        <v>23.9174069079012</v>
+        <v>118.695864</v>
       </c>
       <c r="O13">
-        <v>0.3777706836214788</v>
+        <v>0.5894957947979553</v>
       </c>
       <c r="P13">
-        <v>0.3777706836214788</v>
+        <v>0.6758136650185235</v>
       </c>
       <c r="Q13">
-        <v>65.05287862963736</v>
+        <v>110.4344604160187</v>
       </c>
       <c r="R13">
-        <v>65.05287862963736</v>
+        <v>993.9101437441681</v>
       </c>
       <c r="S13">
-        <v>0.05374506760114068</v>
+        <v>0.08432432204508679</v>
       </c>
       <c r="T13">
-        <v>0.05374506760114068</v>
+        <v>0.1117025669280909</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.53516587169527</v>
+        <v>2.791195666666667</v>
       </c>
       <c r="H14">
-        <v>2.53516587169527</v>
+        <v>8.373587000000001</v>
       </c>
       <c r="I14">
-        <v>0.1326063478923405</v>
+        <v>0.1430448237107242</v>
       </c>
       <c r="J14">
-        <v>0.1326063478923405</v>
+        <v>0.1652860436390099</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.997386032128483</v>
+        <v>0.06171066666666666</v>
       </c>
       <c r="N14">
-        <v>0.997386032128483</v>
+        <v>0.185132</v>
       </c>
       <c r="O14">
-        <v>0.01575351394248427</v>
+        <v>0.0009194468265763251</v>
       </c>
       <c r="P14">
-        <v>0.01575351394248427</v>
+        <v>0.001054078307498645</v>
       </c>
       <c r="Q14">
-        <v>2.528539029557692</v>
+        <v>0.1722465453871111</v>
       </c>
       <c r="R14">
-        <v>2.528539029557692</v>
+        <v>1.550218908484</v>
       </c>
       <c r="S14">
-        <v>0.002089015950383906</v>
+        <v>0.0001315221092189953</v>
       </c>
       <c r="T14">
-        <v>0.002089015950383906</v>
+        <v>0.0001742244331321547</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.53516587169527</v>
+        <v>2.791195666666667</v>
       </c>
       <c r="H15">
-        <v>2.53516587169527</v>
+        <v>8.373587000000001</v>
       </c>
       <c r="I15">
-        <v>0.1326063478923405</v>
+        <v>0.1430448237107242</v>
       </c>
       <c r="J15">
-        <v>0.1326063478923405</v>
+        <v>0.1652860436390099</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>36.9720630093316</v>
+        <v>1.772676333333334</v>
       </c>
       <c r="N15">
-        <v>36.9720630093316</v>
+        <v>5.318029000000001</v>
       </c>
       <c r="O15">
-        <v>0.5839663794538508</v>
+        <v>0.0264116678245299</v>
       </c>
       <c r="P15">
-        <v>0.5839663794538508</v>
+        <v>0.03027903878070085</v>
       </c>
       <c r="Q15">
-        <v>93.73031234742459</v>
+        <v>4.947886500002557</v>
       </c>
       <c r="R15">
-        <v>93.73031234742459</v>
+        <v>44.53097850002301</v>
       </c>
       <c r="S15">
-        <v>0.07743764887128787</v>
+        <v>0.003778052367866087</v>
       </c>
       <c r="T15">
-        <v>0.07743764887128787</v>
+        <v>0.005004702525254196</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,55 +1402,55 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.53516587169527</v>
+        <v>2.791195666666667</v>
       </c>
       <c r="H16">
-        <v>2.53516587169527</v>
+        <v>8.373587000000001</v>
       </c>
       <c r="I16">
-        <v>0.1326063478923405</v>
+        <v>0.1430448237107242</v>
       </c>
       <c r="J16">
-        <v>0.1326063478923405</v>
+        <v>0.1652860436390099</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.4251159554415</v>
+        <v>24.7183095</v>
       </c>
       <c r="N16">
-        <v>1.4251159554415</v>
+        <v>49.436619</v>
       </c>
       <c r="O16">
-        <v>0.02250942298218628</v>
+        <v>0.3682859456189059</v>
       </c>
       <c r="P16">
-        <v>0.02250942298218628</v>
+        <v>0.2814752051723923</v>
       </c>
       <c r="Q16">
-        <v>3.612905333443688</v>
+        <v>68.99363836372551</v>
       </c>
       <c r="R16">
-        <v>3.612905333443688</v>
+        <v>413.961830182353</v>
       </c>
       <c r="S16">
-        <v>0.00298489237483164</v>
+        <v>0.05268139816619376</v>
       </c>
       <c r="T16">
-        <v>0.00298489237483164</v>
+        <v>0.04652392304542332</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.53516587169527</v>
+        <v>2.576876</v>
       </c>
       <c r="H17">
-        <v>2.53516587169527</v>
+        <v>7.730627999999999</v>
       </c>
       <c r="I17">
-        <v>0.1326063478923405</v>
+        <v>0.132061244414513</v>
       </c>
       <c r="J17">
-        <v>0.1326063478923405</v>
+        <v>0.1525946905388278</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>23.9174069079012</v>
+        <v>0.9991829999999999</v>
       </c>
       <c r="N17">
-        <v>23.9174069079012</v>
+        <v>1.998366</v>
       </c>
       <c r="O17">
-        <v>0.3777706836214788</v>
+        <v>0.01488714493203248</v>
       </c>
       <c r="P17">
-        <v>0.3777706836214788</v>
+        <v>0.01137801272088475</v>
       </c>
       <c r="Q17">
-        <v>60.63459373235981</v>
+        <v>2.574770692308</v>
       </c>
       <c r="R17">
-        <v>60.63459373235981</v>
+        <v>15.448624153848</v>
       </c>
       <c r="S17">
-        <v>0.05009479069583712</v>
+        <v>0.001966014885503419</v>
       </c>
       <c r="T17">
-        <v>0.05009479069583712</v>
+        <v>0.001736224330090255</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.55728347119659</v>
+        <v>2.576876</v>
       </c>
       <c r="H18">
-        <v>3.55728347119659</v>
+        <v>7.730627999999999</v>
       </c>
       <c r="I18">
-        <v>0.1860700220051988</v>
+        <v>0.132061244414513</v>
       </c>
       <c r="J18">
-        <v>0.1860700220051988</v>
+        <v>0.1525946905388278</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.997386032128483</v>
+        <v>39.565288</v>
       </c>
       <c r="N18">
-        <v>0.997386032128483</v>
+        <v>118.695864</v>
       </c>
       <c r="O18">
-        <v>0.01575351394248427</v>
+        <v>0.5894957947979553</v>
       </c>
       <c r="P18">
-        <v>0.01575351394248427</v>
+        <v>0.6758136650185235</v>
       </c>
       <c r="Q18">
-        <v>3.547984846493004</v>
+        <v>101.954841080288</v>
       </c>
       <c r="R18">
-        <v>3.547984846493004</v>
+        <v>917.593569722592</v>
       </c>
       <c r="S18">
-        <v>0.002931256685937254</v>
+        <v>0.07784954823814036</v>
       </c>
       <c r="T18">
-        <v>0.002931256685937254</v>
+        <v>0.1031255770754127</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.55728347119659</v>
+        <v>2.576876</v>
       </c>
       <c r="H19">
-        <v>3.55728347119659</v>
+        <v>7.730627999999999</v>
       </c>
       <c r="I19">
-        <v>0.1860700220051988</v>
+        <v>0.132061244414513</v>
       </c>
       <c r="J19">
-        <v>0.1860700220051988</v>
+        <v>0.1525946905388278</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>36.9720630093316</v>
+        <v>0.06171066666666666</v>
       </c>
       <c r="N19">
-        <v>36.9720630093316</v>
+        <v>0.185132</v>
       </c>
       <c r="O19">
-        <v>0.5839663794538508</v>
+        <v>0.0009194468265763251</v>
       </c>
       <c r="P19">
-        <v>0.5839663794538508</v>
+        <v>0.001054078307498645</v>
       </c>
       <c r="Q19">
-        <v>131.5201086391342</v>
+        <v>0.1590207358773333</v>
       </c>
       <c r="R19">
-        <v>131.5201086391342</v>
+        <v>1.431186622896</v>
       </c>
       <c r="S19">
-        <v>0.1086586370752743</v>
+        <v>0.0001214232920906444</v>
       </c>
       <c r="T19">
-        <v>0.1086586370752743</v>
+        <v>0.0001608467531364471</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1653,57 +1653,57 @@
         <v>24</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.55728347119659</v>
+        <v>2.576876</v>
       </c>
       <c r="H20">
-        <v>3.55728347119659</v>
+        <v>7.730627999999999</v>
       </c>
       <c r="I20">
-        <v>0.1860700220051988</v>
+        <v>0.132061244414513</v>
       </c>
       <c r="J20">
-        <v>0.1860700220051988</v>
+        <v>0.1525946905388278</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.4251159554415</v>
+        <v>1.772676333333334</v>
       </c>
       <c r="N20">
-        <v>1.4251159554415</v>
+        <v>5.318029000000001</v>
       </c>
       <c r="O20">
-        <v>0.02250942298218628</v>
+        <v>0.0264116678245299</v>
       </c>
       <c r="P20">
-        <v>0.02250942298218628</v>
+        <v>0.03027903878070085</v>
       </c>
       <c r="Q20">
-        <v>5.069541432830585</v>
+        <v>4.567967099134668</v>
       </c>
       <c r="R20">
-        <v>5.069541432830585</v>
+        <v>41.11170389221201</v>
       </c>
       <c r="S20">
-        <v>0.004188328829619729</v>
+        <v>0.003487957719970171</v>
       </c>
       <c r="T20">
-        <v>0.004188328829619729</v>
+        <v>0.004620420552554214</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1715,57 +1715,57 @@
         <v>25</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.55728347119659</v>
+        <v>2.576876</v>
       </c>
       <c r="H21">
-        <v>3.55728347119659</v>
+        <v>7.730627999999999</v>
       </c>
       <c r="I21">
-        <v>0.1860700220051988</v>
+        <v>0.132061244414513</v>
       </c>
       <c r="J21">
-        <v>0.1860700220051988</v>
+        <v>0.1525946905388278</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>23.9174069079012</v>
+        <v>24.7183095</v>
       </c>
       <c r="N21">
-        <v>23.9174069079012</v>
+        <v>49.436619</v>
       </c>
       <c r="O21">
-        <v>0.3777706836214788</v>
+        <v>0.3682859456189059</v>
       </c>
       <c r="P21">
-        <v>0.3777706836214788</v>
+        <v>0.2814752051723923</v>
       </c>
       <c r="Q21">
-        <v>85.08099626736008</v>
+        <v>63.696018511122</v>
       </c>
       <c r="R21">
-        <v>85.08099626736008</v>
+        <v>382.1761110667319</v>
       </c>
       <c r="S21">
-        <v>0.07029179941436753</v>
+        <v>0.04863630027880837</v>
       </c>
       <c r="T21">
-        <v>0.07029179941436753</v>
+        <v>0.04295162182763428</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1777,57 +1777,57 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.51359993519965</v>
+        <v>3.567523333333333</v>
       </c>
       <c r="H22">
-        <v>3.51359993519965</v>
+        <v>10.70257</v>
       </c>
       <c r="I22">
-        <v>0.1837850771673668</v>
+        <v>0.1828305168265029</v>
       </c>
       <c r="J22">
-        <v>0.1837850771673668</v>
+        <v>0.2112577861876348</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.997386032128483</v>
+        <v>0.9991829999999999</v>
       </c>
       <c r="N22">
-        <v>0.997386032128483</v>
+        <v>1.998366</v>
       </c>
       <c r="O22">
-        <v>0.01575351394248427</v>
+        <v>0.01488714493203248</v>
       </c>
       <c r="P22">
-        <v>0.01575351394248427</v>
+        <v>0.01137801272088475</v>
       </c>
       <c r="Q22">
-        <v>3.504415497855674</v>
+        <v>3.56460866677</v>
       </c>
       <c r="R22">
-        <v>3.504415497855674</v>
+        <v>21.38765200062</v>
       </c>
       <c r="S22">
-        <v>0.002895260775576661</v>
+        <v>0.002721824401994551</v>
       </c>
       <c r="T22">
-        <v>0.002895260775576661</v>
+        <v>0.00240369377862886</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1839,57 +1839,57 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.51359993519965</v>
+        <v>3.567523333333333</v>
       </c>
       <c r="H23">
-        <v>3.51359993519965</v>
+        <v>10.70257</v>
       </c>
       <c r="I23">
-        <v>0.1837850771673668</v>
+        <v>0.1828305168265029</v>
       </c>
       <c r="J23">
-        <v>0.1837850771673668</v>
+        <v>0.2112577861876348</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>36.9720630093316</v>
+        <v>39.565288</v>
       </c>
       <c r="N23">
-        <v>36.9720630093316</v>
+        <v>118.695864</v>
       </c>
       <c r="O23">
-        <v>0.5839663794538508</v>
+        <v>0.5894957947979553</v>
       </c>
       <c r="P23">
-        <v>0.5839663794538508</v>
+        <v>0.6758136650185235</v>
       </c>
       <c r="Q23">
-        <v>129.9050381937849</v>
+        <v>141.1500881300533</v>
       </c>
       <c r="R23">
-        <v>129.9050381937849</v>
+        <v>1270.35079317048</v>
       </c>
       <c r="S23">
-        <v>0.1073243061110738</v>
+        <v>0.1077778208299603</v>
       </c>
       <c r="T23">
-        <v>0.1073243061110738</v>
+        <v>0.1427708987471651</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,117 +1898,489 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.51359993519965</v>
+        <v>3.567523333333333</v>
       </c>
       <c r="H24">
-        <v>3.51359993519965</v>
+        <v>10.70257</v>
       </c>
       <c r="I24">
-        <v>0.1837850771673668</v>
+        <v>0.1828305168265029</v>
       </c>
       <c r="J24">
-        <v>0.1837850771673668</v>
+        <v>0.2112577861876348</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>1.4251159554415</v>
+        <v>0.06171066666666666</v>
       </c>
       <c r="N24">
-        <v>1.4251159554415</v>
+        <v>0.185132</v>
       </c>
       <c r="O24">
-        <v>0.02250942298218628</v>
+        <v>0.0009194468265763251</v>
       </c>
       <c r="P24">
-        <v>0.02250942298218628</v>
+        <v>0.001054078307498645</v>
       </c>
       <c r="Q24">
-        <v>5.007287328691242</v>
+        <v>0.2201542432488889</v>
       </c>
       <c r="R24">
-        <v>5.007287328691242</v>
+        <v>1.98138818924</v>
       </c>
       <c r="S24">
-        <v>0.004136896039774006</v>
+        <v>0.0001681029384974375</v>
       </c>
       <c r="T24">
-        <v>0.004136896039774006</v>
+        <v>0.0002226822497105726</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>3.567523333333333</v>
+      </c>
+      <c r="H25">
+        <v>10.70257</v>
+      </c>
+      <c r="I25">
+        <v>0.1828305168265029</v>
+      </c>
+      <c r="J25">
+        <v>0.2112577861876348</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.772676333333334</v>
+      </c>
+      <c r="N25">
+        <v>5.318029000000001</v>
+      </c>
+      <c r="O25">
+        <v>0.0264116678245299</v>
+      </c>
+      <c r="P25">
+        <v>0.03027903878070085</v>
+      </c>
+      <c r="Q25">
+        <v>6.324064181614446</v>
+      </c>
+      <c r="R25">
+        <v>56.91657763453001</v>
+      </c>
+      <c r="S25">
+        <v>0.004828858878608718</v>
+      </c>
+      <c r="T25">
+        <v>0.006396682700700403</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>3.567523333333333</v>
+      </c>
+      <c r="H26">
+        <v>10.70257</v>
+      </c>
+      <c r="I26">
+        <v>0.1828305168265029</v>
+      </c>
+      <c r="J26">
+        <v>0.2112577861876348</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>24.7183095</v>
+      </c>
+      <c r="N26">
+        <v>49.436619</v>
+      </c>
+      <c r="O26">
+        <v>0.3682859456189059</v>
+      </c>
+      <c r="P26">
+        <v>0.2814752051723923</v>
+      </c>
+      <c r="Q26">
+        <v>88.18314590180501</v>
+      </c>
+      <c r="R26">
+        <v>529.09887541083</v>
+      </c>
+      <c r="S26">
+        <v>0.0673339097774419</v>
+      </c>
+      <c r="T26">
+        <v>0.0594638287114299</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>3.51359993519965</v>
-      </c>
-      <c r="H25">
-        <v>3.51359993519965</v>
-      </c>
-      <c r="I25">
-        <v>0.1837850771673668</v>
-      </c>
-      <c r="J25">
-        <v>0.1837850771673668</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>23.9174069079012</v>
-      </c>
-      <c r="N25">
-        <v>23.9174069079012</v>
-      </c>
-      <c r="O25">
-        <v>0.3777706836214788</v>
-      </c>
-      <c r="P25">
-        <v>0.3777706836214788</v>
-      </c>
-      <c r="Q25">
-        <v>84.03619936174532</v>
-      </c>
-      <c r="R25">
-        <v>84.03619936174532</v>
-      </c>
-      <c r="S25">
-        <v>0.06942861424094239</v>
-      </c>
-      <c r="T25">
-        <v>0.06942861424094239</v>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>3.513618</v>
+      </c>
+      <c r="H27">
+        <v>7.027236</v>
+      </c>
+      <c r="I27">
+        <v>0.1800679448592918</v>
+      </c>
+      <c r="J27">
+        <v>0.1387104518240058</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.9991829999999999</v>
+      </c>
+      <c r="N27">
+        <v>1.998366</v>
+      </c>
+      <c r="O27">
+        <v>0.01488714493203248</v>
+      </c>
+      <c r="P27">
+        <v>0.01137801272088475</v>
+      </c>
+      <c r="Q27">
+        <v>3.510747374094</v>
+      </c>
+      <c r="R27">
+        <v>14.042989496376</v>
+      </c>
+      <c r="S27">
+        <v>0.002680697592733509</v>
+      </c>
+      <c r="T27">
+        <v>0.00157824928537321</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>3.513618</v>
+      </c>
+      <c r="H28">
+        <v>7.027236</v>
+      </c>
+      <c r="I28">
+        <v>0.1800679448592918</v>
+      </c>
+      <c r="J28">
+        <v>0.1387104518240058</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>39.565288</v>
+      </c>
+      <c r="N28">
+        <v>118.695864</v>
+      </c>
+      <c r="O28">
+        <v>0.5894957947979553</v>
+      </c>
+      <c r="P28">
+        <v>0.6758136650185235</v>
+      </c>
+      <c r="Q28">
+        <v>139.017308091984</v>
+      </c>
+      <c r="R28">
+        <v>834.103848551904</v>
+      </c>
+      <c r="S28">
+        <v>0.1061492962724626</v>
+      </c>
+      <c r="T28">
+        <v>0.09374241882355673</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>3.513618</v>
+      </c>
+      <c r="H29">
+        <v>7.027236</v>
+      </c>
+      <c r="I29">
+        <v>0.1800679448592918</v>
+      </c>
+      <c r="J29">
+        <v>0.1387104518240058</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.06171066666666666</v>
+      </c>
+      <c r="N29">
+        <v>0.185132</v>
+      </c>
+      <c r="O29">
+        <v>0.0009194468265763251</v>
+      </c>
+      <c r="P29">
+        <v>0.001054078307498645</v>
+      </c>
+      <c r="Q29">
+        <v>0.216827709192</v>
+      </c>
+      <c r="R29">
+        <v>1.300966255152</v>
+      </c>
+      <c r="S29">
+        <v>0.0001655629004689965</v>
+      </c>
+      <c r="T29">
+        <v>0.0001462116782910204</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>3.513618</v>
+      </c>
+      <c r="H30">
+        <v>7.027236</v>
+      </c>
+      <c r="I30">
+        <v>0.1800679448592918</v>
+      </c>
+      <c r="J30">
+        <v>0.1387104518240058</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1.772676333333334</v>
+      </c>
+      <c r="N30">
+        <v>5.318029000000001</v>
+      </c>
+      <c r="O30">
+        <v>0.0264116678245299</v>
+      </c>
+      <c r="P30">
+        <v>0.03027903878070085</v>
+      </c>
+      <c r="Q30">
+        <v>6.228507472974002</v>
+      </c>
+      <c r="R30">
+        <v>37.37104483784401</v>
+      </c>
+      <c r="S30">
+        <v>0.00475589474546938</v>
+      </c>
+      <c r="T30">
+        <v>0.00420001915006761</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>3.513618</v>
+      </c>
+      <c r="H31">
+        <v>7.027236</v>
+      </c>
+      <c r="I31">
+        <v>0.1800679448592918</v>
+      </c>
+      <c r="J31">
+        <v>0.1387104518240058</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>24.7183095</v>
+      </c>
+      <c r="N31">
+        <v>49.436619</v>
+      </c>
+      <c r="O31">
+        <v>0.3682859456189059</v>
+      </c>
+      <c r="P31">
+        <v>0.2814752051723923</v>
+      </c>
+      <c r="Q31">
+        <v>86.85069718877101</v>
+      </c>
+      <c r="R31">
+        <v>347.402788755084</v>
+      </c>
+      <c r="S31">
+        <v>0.06631649334815727</v>
+      </c>
+      <c r="T31">
+        <v>0.03904355288671729</v>
       </c>
     </row>
   </sheetData>
